--- a/Planning & Approach/CA2_project.xlsx
+++ b/Planning & Approach/CA2_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\Desktop\MSc DA\Github\CA2-Transport_in_Ireland\Planning &amp; Approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D92A4F-3BCB-4465-BD20-00829807D787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF662C-001E-4A02-98A6-AF90A93454A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Words requirement</t>
   </si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>Report Writing + Other</t>
-  </si>
-  <si>
-    <t>Programming for Data Analysis - Req 2</t>
   </si>
 </sst>
 </file>
@@ -314,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -327,17 +321,20 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -346,27 +343,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,60 +1283,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Abstract</v>
-          </cell>
-          <cell r="J8">
-            <v>174</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Statistics for Data Analytics</v>
-          </cell>
-          <cell r="J10">
-            <v>1342</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Data Preparation &amp; Visualisation</v>
-          </cell>
-          <cell r="J16">
-            <v>1220</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Machine Learning for Data Analysis</v>
-          </cell>
-          <cell r="J22">
-            <v>1657</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Programming for Data Analysis</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1621,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B5CF7-C499-4859-A0AA-9FC7B756BA5A}">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1753,7 +1692,7 @@
         <f t="shared" ref="H12:H14" si="2">$H$10*D12</f>
         <v>220</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -1774,7 +1713,7 @@
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
@@ -1795,7 +1734,7 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D15" s="7"/>
@@ -1842,7 +1781,7 @@
         <f>$H$16*D17</f>
         <v>165</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
@@ -1863,7 +1802,7 @@
         <f t="shared" ref="H18:H19" si="6">$H$16*D18</f>
         <v>275</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
@@ -1884,7 +1823,7 @@
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
@@ -1991,7 +1930,6 @@
         <f t="shared" si="9"/>
         <v>330</v>
       </c>
-      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
@@ -2012,7 +1950,6 @@
         <f t="shared" si="9"/>
         <v>165</v>
       </c>
-      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D27" s="7"/>
@@ -2021,11 +1958,11 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
@@ -2034,9 +1971,9 @@
       <c r="D29" s="5">
         <v>0.2</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
@@ -2045,9 +1982,9 @@
       <c r="D30" s="5">
         <v>0.2</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
@@ -2056,9 +1993,9 @@
       <c r="D31" s="5">
         <v>0.2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
@@ -2067,9 +2004,9 @@
       <c r="D32" s="5">
         <v>0.2</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
@@ -2078,53 +2015,53 @@
       <c r="D33" s="5">
         <v>0.2</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="35" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="20">
         <f>SUM(J8,J10,J16,J22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="J37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="12">
         <v>45263</v>
       </c>
     </row>
@@ -2132,7 +2069,7 @@
       <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="12">
         <v>45284</v>
       </c>
     </row>
@@ -2140,7 +2077,7 @@
       <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="12">
         <v>45296</v>
       </c>
     </row>
@@ -2162,260 +2099,246 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B46" s="24">
+      <c r="B46" s="13">
         <v>1</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="12">
         <v>45263</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="12">
         <v>45263</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B47" s="24">
+      <c r="B47" s="13">
         <v>1</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="12">
         <v>45264</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="12">
         <v>45264</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B48" s="24">
+      <c r="B48" s="13">
         <v>1</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="12">
         <v>45265</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="12">
         <v>45266</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="24">
+      <c r="B49" s="13">
         <v>1</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="12">
         <v>45267</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="12">
         <v>45268</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="24">
+      <c r="B50" s="13">
         <v>2</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="12">
         <v>45269</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="12">
         <v>45270</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" s="24">
+      <c r="B51" s="13">
         <v>2</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="12">
         <v>45271</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="12">
         <v>45272</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="24">
+      <c r="B52" s="13">
         <v>2</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="12">
         <v>45273</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="12">
         <v>45274</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="24">
+      <c r="B53" s="13">
         <v>3</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="12">
         <v>45275</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="12">
         <v>45276</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="24">
+      <c r="B54" s="13">
         <v>3</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="12">
         <v>45277</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="12">
         <v>45279</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="24">
+      <c r="B55" s="13">
         <v>3</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="12">
         <v>45280</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="12">
         <v>45282</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="24">
+      <c r="B56" s="13">
         <v>4</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="12">
         <v>45283</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="12">
         <v>45286</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="24">
+      <c r="B57" s="13">
         <v>4</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="12">
         <v>45287</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="12">
         <v>45287</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B58" s="24">
+      <c r="B58" s="13">
         <v>4</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="12">
         <v>45288</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="12">
         <v>45289</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B59" s="24">
+      <c r="B59" s="13">
         <v>5</v>
       </c>
-      <c r="C59" s="23">
-        <v>45290</v>
-      </c>
-      <c r="D59" s="23">
-        <v>45291</v>
+      <c r="C59" s="12">
+        <v>45261</v>
+      </c>
+      <c r="D59" s="12">
+        <v>45265</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C60" s="23">
-        <v>45261</v>
-      </c>
-      <c r="D60" s="23">
-        <v>45265</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Planning & Approach/CA2_project.xlsx
+++ b/Planning & Approach/CA2_project.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\Desktop\MSc DA\Github\CA2-Transport_in_Ireland\Planning &amp; Approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF662C-001E-4A02-98A6-AF90A93454A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7042D6-900B-46FF-AC26-708BC75B8CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Planning" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -308,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -360,6 +359,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Sheet1 (2)'!$B$8,'Sheet1 (2)'!$B$10,'Sheet1 (2)'!$B$16,'Sheet1 (2)'!$B$22,'Sheet1 (2)'!$B$28)</c:f>
+              <c:f>(Planning!$B$8,Planning!$B$16,Planning!$B$10,Planning!$B$22,Planning!$B$28)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -500,21 +505,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Sheet1 (2)'!$J$8,'Sheet1 (2)'!$J$10,'Sheet1 (2)'!$J$16,'Sheet1 (2)'!$J$22)</c:f>
+              <c:f>(Planning!$J$8,Planning!$J$16,Planning!$J$10,Planning!$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,23 +1550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B5CF7-C499-4859-A0AA-9FC7B756BA5A}">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1625,32 +1618,34 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3">
-        <f>D3/3</f>
+        <f>F16</f>
         <v>900</v>
       </c>
       <c r="G10" s="3">
-        <f>D2/3</f>
+        <f>G16</f>
         <v>1000</v>
       </c>
       <c r="H10" s="3">
-        <f>D4/3</f>
+        <f>H16</f>
         <v>1100</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <f>SUM(J11:J14)</f>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
@@ -1658,19 +1653,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="6">
         <f>$F$10*D11</f>
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G11" s="6">
         <f>$G$10*D11</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H11" s="6">
         <f>$H$10*D11</f>
-        <v>220</v>
+        <v>165</v>
+      </c>
+      <c r="J11" s="10">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
@@ -1678,88 +1676,94 @@
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F14" si="0">$F$10*D12</f>
-        <v>180</v>
+        <f>$F$10*D12</f>
+        <v>225</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" ref="G12:G14" si="1">$G$10*D12</f>
-        <v>200</v>
+        <f>$G$10*D12</f>
+        <v>250</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ref="H12:H14" si="2">$H$10*D12</f>
-        <v>220</v>
-      </c>
-      <c r="J12" s="10"/>
+        <f>$H$10*D12</f>
+        <v>275</v>
+      </c>
+      <c r="J12" s="11">
+        <v>250</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <f>$F$10*D13</f>
+        <v>270</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f>$G$10*D13</f>
+        <v>300</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-      <c r="J13" s="11"/>
+        <f>$H$10*D13</f>
+        <v>330</v>
+      </c>
+      <c r="J13" s="11">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>$F$10*D14</f>
+        <v>270</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f>$G$10*D14</f>
+        <v>300</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="J14" s="11"/>
+        <f>$H$10*D14</f>
+        <v>330</v>
+      </c>
+      <c r="J14">
+        <v>322</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <f>F10</f>
+        <f>D3/3</f>
         <v>900</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:H16" si="3">G10</f>
+        <f>D2/3</f>
         <v>1000</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
+        <f>D4/3</f>
         <v>1100</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <f>SUM(J17:J20)</f>
+        <v>1079</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
@@ -1767,83 +1771,81 @@
         <v>7</v>
       </c>
       <c r="D17" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="6">
         <f>$F$16*D17</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G17" s="6">
         <f>$G$16*D17</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H17" s="6">
         <f>$H$16*D17</f>
-        <v>165</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="J17">
+        <v>282</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="4">$F$16*D18</f>
-        <v>225</v>
+        <f t="shared" ref="F18:F20" si="0">$F$16*D18</f>
+        <v>180</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:G19" si="5">$G$16*D18</f>
-        <v>250</v>
+        <f t="shared" ref="G18:G20" si="1">$G$16*D18</f>
+        <v>200</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:H19" si="6">$H$16*D18</f>
-        <v>275</v>
-      </c>
-      <c r="J18" s="11"/>
+        <f t="shared" ref="H18:H20" si="2">$H$16*D18</f>
+        <v>220</v>
+      </c>
+      <c r="J18" s="10">
+        <v>196</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="J19" s="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="24">
+        <f>$F$16*D19+$F$16*D20</f>
+        <v>540</v>
+      </c>
+      <c r="G19" s="24">
+        <f>$G$16*D19+$G$16*D20</f>
+        <v>600</v>
+      </c>
+      <c r="H19" s="24">
+        <f>$H$16*D19+$H$16*D20</f>
+        <v>660</v>
+      </c>
+      <c r="J19" s="25">
+        <v>601</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="6">
-        <f>$F$16*D20</f>
-        <v>270</v>
-      </c>
-      <c r="G20" s="6">
-        <f>$G$16*D20</f>
-        <v>300</v>
-      </c>
-      <c r="H20" s="6">
-        <f>$H$16*D20</f>
-        <v>330</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D21" s="7"/>
@@ -1856,19 +1858,20 @@
         <v>12</v>
       </c>
       <c r="F22" s="3">
-        <f>F16</f>
+        <f>F10</f>
         <v>900</v>
       </c>
       <c r="G22" s="3">
-        <f>G16</f>
+        <f>G10</f>
         <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <f>H16</f>
+        <f>H10</f>
         <v>1100</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <f>SUM(J23:J26)</f>
+        <v>1116</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
@@ -1890,6 +1893,9 @@
         <f>$H$22*D23</f>
         <v>330</v>
       </c>
+      <c r="J23">
+        <v>301</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
@@ -1899,16 +1905,19 @@
         <v>0.25</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" ref="F24:F26" si="7">$F$22*D24</f>
+        <f t="shared" ref="F24:F26" si="3">$F$22*D24</f>
         <v>225</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:G26" si="8">$G$22*D24</f>
+        <f t="shared" ref="G24:G26" si="4">$G$22*D24</f>
         <v>250</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H26" si="9">$H$22*D24</f>
+        <f t="shared" ref="H24:H26" si="5">$H$22*D24</f>
         <v>275</v>
+      </c>
+      <c r="J24">
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
@@ -1919,16 +1928,19 @@
         <v>0.3</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>330</v>
+      </c>
+      <c r="J25">
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
@@ -1939,16 +1951,19 @@
         <v>0.15</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>165</v>
+      </c>
+      <c r="J26">
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
@@ -2032,8 +2047,8 @@
       <c r="H36" s="15"/>
       <c r="I36" s="8"/>
       <c r="J36" s="20">
-        <f>SUM(J8,J10,J16,J22)</f>
-        <v>0</v>
+        <f>SUM(J8,J16,J10,J22)</f>
+        <v>3293</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
@@ -2070,7 +2085,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="12">
-        <v>45284</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.45">
@@ -2341,10 +2356,14 @@
       <c r="D61" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B36:H38"/>
     <mergeCell ref="J36:J38"/>
     <mergeCell ref="F28:H33"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
